--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
   <si>
     <t>Item Number</t>
   </si>
@@ -457,6 +457,12 @@
   </si>
   <si>
     <t>a345f000000uK0KAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-4EFMG</t>
+  </si>
+  <si>
+    <t>a345f000000uL5gAAE</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +501,18 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -625,7 +643,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -663,11 +681,14 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -691,8 +712,10 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="19" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="20" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1127,9 +1150,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.73828125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.26953125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="21.30859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.6484375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1151,13 +1174,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
   <si>
     <t>Item Number</t>
   </si>
@@ -463,6 +463,24 @@
   </si>
   <si>
     <t>a345f000000uL5gAAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-AOTES</t>
+  </si>
+  <si>
+    <t>a345f000000uL8pAAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-GA5W9</t>
+  </si>
+  <si>
+    <t>a345f000000uL8uAAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-HCHE4</t>
+  </si>
+  <si>
+    <t>a345f000000uL8zAAE</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +519,42 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -643,7 +697,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -684,11 +738,20 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -714,8 +777,14 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1150,9 +1219,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.26953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.90234375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.6484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.48046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1174,13 +1243,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
   <si>
     <t>Item Number</t>
   </si>
@@ -481,6 +481,18 @@
   </si>
   <si>
     <t>a345f000000uL8zAAE</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-0H2U4</t>
+  </si>
+  <si>
+    <t>a345f000000uL9EAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-FG81H</t>
+  </si>
+  <si>
+    <t>a345f000000uL9JAAU</t>
   </si>
 </sst>
 </file>
@@ -491,7 +503,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +531,30 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -697,7 +733,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -747,11 +783,17 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -783,8 +825,12 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1219,9 +1265,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.90234375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.80078125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.48046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.65234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,13 +1289,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="159">
   <si>
     <t>Item Number</t>
   </si>
@@ -493,6 +493,30 @@
   </si>
   <si>
     <t>a345f000000uL9JAAU</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-MKJ81</t>
+  </si>
+  <si>
+    <t>a345f000000uLChAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-N6947</t>
+  </si>
+  <si>
+    <t>a345f000000uLCmAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-OV9Z3</t>
+  </si>
+  <si>
+    <t>a345f000000uLCrAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-PTVM2</t>
+  </si>
+  <si>
+    <t>a345f000000uLCwAAM</t>
   </si>
 </sst>
 </file>
@@ -503,7 +527,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,6 +555,54 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -733,7 +805,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -789,11 +861,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -829,8 +913,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1265,9 +1357,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.80078125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.25390625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.65234375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="22.05078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1289,13 +1381,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
   <si>
     <t>Item Number</t>
   </si>
@@ -517,6 +517,60 @@
   </si>
   <si>
     <t>a345f000000uLCwAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-UGN5J</t>
+  </si>
+  <si>
+    <t>a345f000000uLNuAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-V4N93</t>
+  </si>
+  <si>
+    <t>a345f000000uLNzAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-6AZLX</t>
+  </si>
+  <si>
+    <t>a345f000000uLO4AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-6H7YK</t>
+  </si>
+  <si>
+    <t>a345f000000uLO9AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-K30LB</t>
+  </si>
+  <si>
+    <t>a345f000000uLRXAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-RRKDR</t>
+  </si>
+  <si>
+    <t>a345f000000uLV0AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-T6LNR</t>
+  </si>
+  <si>
+    <t>a345f000000uLV5AAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-U4LVA</t>
+  </si>
+  <si>
+    <t>a345f000000uLVAAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-VDAH7</t>
+  </si>
+  <si>
+    <t>a345f000000uLVFAA2</t>
   </si>
 </sst>
 </file>
@@ -527,7 +581,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="68" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +609,150 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -805,7 +1003,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -873,11 +1071,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -921,8 +1155,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="43" fillId="0" borderId="20" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="48" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="49" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="50" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="51" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="52" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="53" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="54" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="55" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="56" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="57" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="58" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="59" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="60" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="61" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="62" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="67" fillId="0" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1357,9 +1615,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.25390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.16015625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="22.05078125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1381,13 +1639,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/Create Engineering Item Master.xlsx
+++ b/templates/AutomationOrg/Create Engineering Item Master.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="181">
   <si>
     <t>Item Number</t>
   </si>
@@ -571,6 +571,18 @@
   </si>
   <si>
     <t>a345f000000uLVFAA2</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-JIW68</t>
+  </si>
+  <si>
+    <t>a345f000000uMMjAAM</t>
+  </si>
+  <si>
+    <t>Pro-PEItem-NO6BD</t>
+  </si>
+  <si>
+    <t>a345f000000uMMoAAM</t>
   </si>
 </sst>
 </file>
@@ -581,7 +593,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="68" x14ac:knownFonts="1">
+  <fonts count="72" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +621,30 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1003,7 +1039,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1107,11 +1143,17 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -1179,8 +1221,12 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="63" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="64" numFmtId="165" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="65" numFmtId="49" xfId="0"/>
-    <xf numFmtId="165" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="67" fillId="0" borderId="32" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="66" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="67" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="68" numFmtId="165" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="69" numFmtId="49" xfId="0"/>
+    <xf numFmtId="165" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="71" fillId="0" borderId="34" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1615,9 +1661,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.16015625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.34375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.30078125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1639,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
